--- a/dayz_xy_mapper/dAyZ XY mapper_DEER ISLE.xlsx
+++ b/dayz_xy_mapper/dAyZ XY mapper_DEER ISLE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\DAYZ\TypesDBtools\dayz xy mapper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\GitHub\DayZ-Modwork\dayz_xy_mapper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87083BE7-52E7-4037-AA4D-3F15098AAE11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF10D27-5080-4196-99FC-B7E5FD47BF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{49736856-2605-4B12-9DAB-AC07616EC5DD}"/>
   </bookViews>
@@ -315,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -349,12 +349,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -775,10 +769,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>xyza!$D$4:$D$23</c:f>
+              <c:f>xyza!$D$4:$D$1000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="997"/>
                 <c:pt idx="0">
                   <c:v>6977.0630000000001</c:v>
                 </c:pt>
@@ -844,10 +838,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>xyza!$F$4:$F$23</c:f>
+              <c:f>xyza!$F$4:$F$1000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="997"/>
                 <c:pt idx="0">
                   <c:v>1930.3869999999999</c:v>
                 </c:pt>
@@ -2122,9 +2116,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G389"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2646,19 +2638,19 @@
         <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("pos",Table2[[#This Row],[xyza]])&gt;0,"XML",""),"JSON"))</f>
         <v>JSON</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="9">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"x="""),""""),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],","))),0)</f>
         <v>16384</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="9">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"y="""),""""),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", "))),0)</f>
         <v>1</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="9">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"z="""),""""),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2))),0)</f>
         <v>16384</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="9">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"a="""),""""),"")),0)</f>
         <v>0</v>
       </c>
@@ -2667,23 +2659,23 @@
       <c r="A23" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="12" t="str">
+      <c r="C23" s="7" t="str">
         <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("pos",Table2[[#This Row],[xyza]])&gt;0,"XML",""),"JSON"))</f>
         <v>JSON</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="9">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"x="""),""""),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],","))),0)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="9">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"y="""),""""),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", "))),0)</f>
         <v>1</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="9">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"z="""),""""),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2))),0)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="9">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"a="""),""""),"")),0)</f>
         <v>0</v>
       </c>
